--- a/statistics/HistoricalDistanceData/historical_distance/Q18702358-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q18702358-en.xlsx
@@ -31,34 +31,34 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Ebola outbreak: Red Cross workers attacked while burying dead bodies in Guinea</t>
+  </si>
+  <si>
+    <t>Journalists, health team killed while conducting Ebola awareness-raising campaign</t>
+  </si>
+  <si>
     <t>Guinea arrests 27 over Ebola health team murders</t>
   </si>
   <si>
-    <t>Ebola outbreak: Red Cross workers attacked while burying dead bodies in Guinea</t>
-  </si>
-  <si>
-    <t>Journalists, health team killed while conducting Ebola awareness-raising campaign</t>
+    <t>2014-09-24T20:27:42UTC</t>
+  </si>
+  <si>
+    <t>2014-09-19T00:00:00UTC</t>
   </si>
   <si>
     <t>2014-09-24T00:00:00UTC</t>
   </si>
   <si>
-    <t>2014-09-24T20:27:42UTC</t>
-  </si>
-  <si>
-    <t>2014-09-19T00:00:00UTC</t>
-  </si>
-  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
+    <t>https://www.independent.co.uk/news/world/africa/ebola-outbreak-red-cross-workers-attacked-while-burying-dead-bodies-in-guinea-9754140.html</t>
+  </si>
+  <si>
+    <t>https://www.ifex.org/guinea/2014/09/19/journalists_killed/</t>
+  </si>
+  <si>
     <t>http://reliefweb.int/report/guinea/guinea-arrests-27-over-ebola-health-team-murders</t>
-  </si>
-  <si>
-    <t>https://www.independent.co.uk/news/world/africa/ebola-outbreak-red-cross-workers-attacked-while-burying-dead-bodies-in-guinea-9754140.html</t>
-  </si>
-  <si>
-    <t>https://www.ifex.org/guinea/2014/09/19/journalists_killed/</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -494,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
